--- a/1_SRE/Part 2/Python for Project Work SRE_Part 2/ERS/ERS_Means/SA_el_hor2_mean.xlsx
+++ b/1_SRE/Part 2/Python for Project Work SRE_Part 2/ERS/ERS_Means/SA_el_hor2_mean.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.3354</v>
+        <v>4.66956</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>3.463337324292365</v>
+        <v>4.811374505962498</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>4.25808489515295</v>
+        <v>5.860784560150686</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>6.715160948473258</v>
+        <v>7.516020369489652</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.028356274988152</v>
+        <v>9.386338384940069</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>9.027260509875397</v>
+        <v>12.56165472664754</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>9.400255139830421</v>
+        <v>12.80898714068396</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>7.142857142857142</v>
       </c>
       <c r="C9" t="n">
-        <v>8.617086538186232</v>
+        <v>11.60799448374659</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>6.25</v>
       </c>
       <c r="C10" t="n">
-        <v>8.079281751732811</v>
+        <v>13.0401540341605</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="C11" t="n">
-        <v>8.605088386434227</v>
+        <v>11.92591252923428</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>7.802777549308167</v>
+        <v>10.46621955212209</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>4.545454545454546</v>
       </c>
       <c r="C13" t="n">
-        <v>6.901675397907128</v>
+        <v>9.757365287492574</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>7.322996854884249</v>
+        <v>10.0804992761267</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>3.846153846153846</v>
       </c>
       <c r="C15" t="n">
-        <v>7.064589546949349</v>
+        <v>10.05135102174217</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>3.571428571428571</v>
       </c>
       <c r="C16" t="n">
-        <v>6.256508160463962</v>
+        <v>9.850092679630928</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>5.141568647740828</v>
+        <v>9.198550509843999</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>3.125</v>
       </c>
       <c r="C18" t="n">
-        <v>4.764039787047949</v>
+        <v>8.507337446567242</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>2.941176470588235</v>
       </c>
       <c r="C19" t="n">
-        <v>4.867065397084631</v>
+        <v>8.282879092578073</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="C20" t="n">
-        <v>4.873278151486248</v>
+        <v>7.985551560261907</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2.631578947368421</v>
       </c>
       <c r="C21" t="n">
-        <v>4.39661050655615</v>
+        <v>7.241478574869769</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>2.5</v>
       </c>
       <c r="C22" t="n">
-        <v>3.832397596847732</v>
+        <v>6.371148035543016</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>2.380952380952381</v>
       </c>
       <c r="C23" t="n">
-        <v>3.587077126649083</v>
+        <v>6.022848882460092</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>2.272727272727273</v>
       </c>
       <c r="C24" t="n">
-        <v>3.374953733206182</v>
+        <v>5.649676392842317</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>2.173913043478261</v>
       </c>
       <c r="C25" t="n">
-        <v>3.117013566708471</v>
+        <v>5.186484290271929</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>2.083333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>3.06316359893707</v>
+        <v>4.904309340460673</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2.897159840290553</v>
+        <v>4.513627583150559</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.923076923076923</v>
       </c>
       <c r="C28" t="n">
-        <v>2.673181675128579</v>
+        <v>4.107398647042303</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.851851851851852</v>
       </c>
       <c r="C29" t="n">
-        <v>2.348064625098571</v>
+        <v>3.599602141308002</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="C30" t="n">
-        <v>2.119968029351022</v>
+        <v>3.171390719514179</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.724137931034483</v>
       </c>
       <c r="C31" t="n">
-        <v>1.889574131307275</v>
+        <v>2.802138329120117</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>1.738050522887132</v>
+        <v>2.58481158023248</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.612903225806452</v>
       </c>
       <c r="C33" t="n">
-        <v>1.584334530210943</v>
+        <v>2.36866038969363</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.5625</v>
       </c>
       <c r="C34" t="n">
-        <v>1.412177065991652</v>
+        <v>2.132591086067483</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.515151515151515</v>
       </c>
       <c r="C35" t="n">
-        <v>1.308460900769283</v>
+        <v>1.98605896944901</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.470588235294118</v>
       </c>
       <c r="C36" t="n">
-        <v>1.214857295561699</v>
+        <v>1.841380944101924</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.428571428571428</v>
       </c>
       <c r="C37" t="n">
-        <v>1.133557196335364</v>
+        <v>1.724489196186762</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>1.082811815334824</v>
+        <v>1.630291340130692</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.351351351351351</v>
       </c>
       <c r="C39" t="n">
-        <v>1.028366665680259</v>
+        <v>1.557798545174724</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.315789473684211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9435365795328337</v>
+        <v>1.444257448962443</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.282051282051282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8742519489067045</v>
+        <v>1.348998092416039</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.25</v>
       </c>
       <c r="C42" t="n">
-        <v>0.850645576019365</v>
+        <v>1.282188962649353</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.219512195121951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8173016506084865</v>
+        <v>1.213667919115521</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.19047619047619</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7551974522040544</v>
+        <v>1.125651123761383</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.162790697674419</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6851959535086374</v>
+        <v>1.037594909465297</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.136363636363636</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6578885589969681</v>
+        <v>0.9979506530544746</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6353698128933164</v>
+        <v>0.9599578803535668</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.08695652173913</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6081150109188163</v>
+        <v>0.9162390969702756</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.063829787234043</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5870230322040735</v>
+        <v>0.8817058099607933</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5662513839406416</v>
+        <v>0.8482268420786018</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.020408163265306</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5728543942247406</v>
+        <v>0.8536991196611413</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5660859286061284</v>
+        <v>0.8411228940704993</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.9803921568627451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5478592922554237</v>
+        <v>0.8130228392066131</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.9615384615384615</v>
       </c>
       <c r="C54" t="n">
-        <v>0.518495181436888</v>
+        <v>0.7696173535928765</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.9433962264150942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4869783752662122</v>
+        <v>0.7236809382555862</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.9259259259259258</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4667885074115482</v>
+        <v>0.683931039100695</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4452399170204244</v>
+        <v>0.6429402379101756</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4322149714038215</v>
+        <v>0.6123679294356253</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.8771929824561403</v>
       </c>
       <c r="C59" t="n">
-        <v>0.427291126060827</v>
+        <v>0.5929938551017866</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0.8620689655172414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4241111472845553</v>
+        <v>0.5768748391418702</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.8474576271186441</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4228196942334262</v>
+        <v>0.5618541547250957</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4180467316388036</v>
+        <v>0.5435044577623334</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.819672131147541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4111642874467866</v>
+        <v>0.52982943144603</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4003664708635659</v>
+        <v>0.5146339756249581</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.7936507936507936</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3859652008003946</v>
+        <v>0.4965149162125412</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.78125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3770581408198959</v>
+        <v>0.4848974017427869</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3653210112051813</v>
+        <v>0.470668270291733</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.7575757575757576</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3528848782054191</v>
+        <v>0.4553481076623994</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.7462686567164178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3433560682595035</v>
+        <v>0.439252900912632</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.7352941176470588</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3308913855770847</v>
+        <v>0.4218626256234498</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.7246376811594202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3149954145898755</v>
+        <v>0.4037321402424936</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.7142857142857142</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2964899467283834</v>
+        <v>0.3854054814420061</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.7042253521126761</v>
       </c>
       <c r="C73" t="n">
-        <v>0.281219302239669</v>
+        <v>0.370618971061244</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2709328320973986</v>
+        <v>0.3570584244618583</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.684931506849315</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2640815274784042</v>
+        <v>0.3475198105009752</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.6756756756756757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2566387442698335</v>
+        <v>0.3380146124754034</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2514742559436612</v>
+        <v>0.3324553338083145</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2468532416856296</v>
+        <v>0.3282124158667851</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.6493506493506493</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2406889371914492</v>
+        <v>0.3222486722091005</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.641025641025641</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2329909035466688</v>
+        <v>0.3142927736375527</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.6329113924050632</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2272811779880561</v>
+        <v>0.3091992666705856</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2245164307823911</v>
+        <v>0.308135024579552</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.6172839506172839</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2212594020732874</v>
+        <v>0.3061613415227646</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.6097560975609756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2175645008037529</v>
+        <v>0.3031769503421606</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.6024096385542168</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2132975787772312</v>
+        <v>0.2991817382479251</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.5952380952380952</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2084975919602758</v>
+        <v>0.2942278494340553</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2035796606136611</v>
+        <v>0.2888411504571992</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.5813953488372093</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1983224060642019</v>
+        <v>0.2829373575366714</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.5747126436781609</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1926181744410341</v>
+        <v>0.2763796898259255</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.5681818181818182</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1865498567222268</v>
+        <v>0.2692833876996683</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.5617977528089888</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1802129685506374</v>
+        <v>0.2617572822427157</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174177032861863</v>
+        <v>0.2539049031137458</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.5494505494505494</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1684371442191448</v>
+        <v>0.2458194398160671</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.5434782608695652</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1632382764201725</v>
+        <v>0.2375828087620785</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.5376344086021505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1579655302215484</v>
+        <v>0.2292661217045099</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.5319148936170213</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1526551808388612</v>
+        <v>0.2209316704072017</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1490500520442129</v>
+        <v>0.2150300479586513</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1470251925627028</v>
+        <v>0.2113954048017631</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1446707615804331</v>
+        <v>0.2073610490661948</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.5102040816326531</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1420344959888173</v>
+        <v>0.202998682959486</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.5050505050505051</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139108777007067</v>
+        <v>0.1983002631687367</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.135946089262896</v>
+        <v>0.1933397561852215</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.495049504950495</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132556426926009</v>
+        <v>0.1881297261331414</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.4901960784313725</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1292000538232119</v>
+        <v>0.183031488807874</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.4854368932038835</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1261718007046713</v>
+        <v>0.1784534567052227</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.4807692307692307</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1230584869956576</v>
+        <v>0.1738118708190549</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1207220501595035</v>
+        <v>0.1703075145067546</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.4716981132075471</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1183209112237244</v>
+        <v>0.1667485700882551</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.4672897196261682</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1158609325614649</v>
+        <v>0.1631491535032296</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.4629629629629629</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1133494299801421</v>
+        <v>0.1595102418834244</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.4587155963302752</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1107989139917188</v>
+        <v>0.155841918994372</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1082217781482876</v>
+        <v>0.1521563475269147</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.4504504504504504</v>
       </c>
       <c r="C113" t="n">
-        <v>0.105630031260023</v>
+        <v>0.1484657676585101</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1030350834881198</v>
+        <v>0.144782255529654</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.4424778761061947</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1004475842256015</v>
+        <v>0.1411175195857254</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.4385964912280702</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09787730780036139</v>
+        <v>0.137482734492184</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.4347826086956521</v>
       </c>
       <c r="C117" t="n">
-        <v>0.09554952595708298</v>
+        <v>0.1341914326089823</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.4310344827586207</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0934804356996997</v>
+        <v>0.1312650543858284</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.4273504273504274</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0914464761856655</v>
+        <v>0.1283899298918658</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.4237288135593221</v>
       </c>
       <c r="C120" t="n">
-        <v>0.08954947182359034</v>
+        <v>0.1257084080672157</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.4201680672268908</v>
       </c>
       <c r="C121" t="n">
-        <v>0.08809631176812344</v>
+        <v>0.1236503320020304</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08663826852678026</v>
+        <v>0.1215880074823175</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.4132231404958678</v>
       </c>
       <c r="C123" t="n">
-        <v>0.08517922822441634</v>
+        <v>0.1195276491972308</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.4098360655737705</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08372287145808399</v>
+        <v>0.1174753613715879</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.4065040650406504</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08227264827538874</v>
+        <v>0.1155036456720488</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.4032258064516129</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08083176002539871</v>
+        <v>0.1136616431529482</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.4</v>
       </c>
       <c r="C127" t="n">
-        <v>0.07940314737703759</v>
+        <v>0.1118362852203056</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.3968253968253968</v>
       </c>
       <c r="C128" t="n">
-        <v>0.07807916523657776</v>
+        <v>0.1100328267385798</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.3937007874015748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.07692504965795445</v>
+        <v>0.108256028708842</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.390625</v>
       </c>
       <c r="C130" t="n">
-        <v>0.07579122483716741</v>
+        <v>0.10651013015217</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0.3875968992248062</v>
       </c>
       <c r="C131" t="n">
-        <v>0.07467958947380136</v>
+        <v>0.1047988327885314</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0735916857111803</v>
+        <v>0.1031252970125046</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.3816793893129771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0725287139146658</v>
+        <v>0.1014921476911546</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.3787878787878788</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07149155119984907</v>
+        <v>0.09990148826162437</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.3759398496240601</v>
       </c>
       <c r="C135" t="n">
-        <v>0.07048077285878444</v>
+        <v>0.09835492170879193</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.3731343283582089</v>
       </c>
       <c r="C136" t="n">
-        <v>0.06949667589933166</v>
+        <v>0.09685357707143324</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.3703703703703703</v>
       </c>
       <c r="C137" t="n">
-        <v>0.06853930398329591</v>
+        <v>0.09539814020121397</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.3676470588235294</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0676084731468435</v>
+        <v>0.09398888764324838</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.364963503649635</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06670538985889647</v>
+        <v>0.09262795154327615</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.3623188405797101</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06583018069093538</v>
+        <v>0.09131586230381936</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.3597122302158273</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06497974016168624</v>
+        <v>0.09004853793422365</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.3571428571428571</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06415323082865822</v>
+        <v>0.08882498756427504</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.3546099290780142</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06334971183688337</v>
+        <v>0.08764399560857977</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.3521126760563381</v>
       </c>
       <c r="C144" t="n">
-        <v>0.06262107072979313</v>
+        <v>0.08657823111815248</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.3496503496503497</v>
       </c>
       <c r="C145" t="n">
-        <v>0.06190049954577809</v>
+        <v>0.08553411958278248</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.3472222222222222</v>
       </c>
       <c r="C146" t="n">
-        <v>0.06118233390642182</v>
+        <v>0.08450362322885696</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.3448275862068966</v>
       </c>
       <c r="C147" t="n">
-        <v>0.06046794718860916</v>
+        <v>0.08348849860387529</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.3424657534246575</v>
       </c>
       <c r="C148" t="n">
-        <v>0.05975713931865463</v>
+        <v>0.08248824670270324</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.3401360544217687</v>
       </c>
       <c r="C149" t="n">
-        <v>0.05904917690986743</v>
+        <v>0.0815015749423503</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.3378378378378378</v>
       </c>
       <c r="C150" t="n">
-        <v>0.05834379039453857</v>
+        <v>0.08052942969634375</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.3355704697986577</v>
       </c>
       <c r="C151" t="n">
-        <v>0.05764055862987454</v>
+        <v>0.07957067120909174</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0569798206191947</v>
+        <v>0.07867988509170951</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.3311258278145696</v>
       </c>
       <c r="C153" t="n">
-        <v>0.05634655541417567</v>
+        <v>0.07783564648018322</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.3289473684210527</v>
       </c>
       <c r="C154" t="n">
-        <v>0.05572413256796972</v>
+        <v>0.07701425655005929</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.326797385620915</v>
       </c>
       <c r="C155" t="n">
-        <v>0.05511160629415737</v>
+        <v>0.07621395876592638</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.3246753246753247</v>
       </c>
       <c r="C156" t="n">
-        <v>0.05450808684665343</v>
+        <v>0.07543306292798925</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.3225806451612903</v>
       </c>
       <c r="C157" t="n">
-        <v>0.05391274325908309</v>
+        <v>0.07466995280125995</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.3205128205128205</v>
       </c>
       <c r="C158" t="n">
-        <v>0.05332480514894224</v>
+        <v>0.07392309211712851</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.3184713375796178</v>
       </c>
       <c r="C159" t="n">
-        <v>0.05274356369404453</v>
+        <v>0.07319102909780364</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.3164556962025316</v>
       </c>
       <c r="C160" t="n">
-        <v>0.05216837186402326</v>
+        <v>0.0724723996331975</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.3144654088050314</v>
       </c>
       <c r="C161" t="n">
-        <v>0.05159864400556979</v>
+        <v>0.07176592925243463</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.3125</v>
       </c>
       <c r="C162" t="n">
-        <v>0.05103385486562639</v>
+        <v>0.07107127856137896</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.3105590062111801</v>
       </c>
       <c r="C163" t="n">
-        <v>0.05047353812763541</v>
+        <v>0.0703873390437447</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.308641975308642</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04991728455072387</v>
+        <v>0.06971224197861506</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.3067484662576687</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04936473976206766</v>
+        <v>0.06904507247559723</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.3048780487804878</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04881560178308315</v>
+        <v>0.06838500145290384</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.303030303030303</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04826961834053942</v>
+        <v>0.06773128294369674</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.3012048192771084</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04772658401568459</v>
+        <v>0.06708325098616927</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.2994011976047904</v>
       </c>
       <c r="C169" t="n">
-        <v>0.04718633727936843</v>
+        <v>0.06644031617648198</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.2976190476190476</v>
       </c>
       <c r="C170" t="n">
-        <v>0.04683412752345124</v>
+        <v>0.06580196196787216</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.2958579881656805</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04664376820099172</v>
+        <v>0.06516908733179805</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="C172" t="n">
-        <v>0.04648766882534765</v>
+        <v>0.06454151436550348</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.2923976608187134</v>
       </c>
       <c r="C173" t="n">
-        <v>0.04637017634414711</v>
+        <v>0.06391729642795013</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.2906976744186047</v>
       </c>
       <c r="C174" t="n">
-        <v>0.04624180124444172</v>
+        <v>0.06329617109139378</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.2890173410404624</v>
       </c>
       <c r="C175" t="n">
-        <v>0.04610122028266168</v>
+        <v>0.06267792837076541</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.2873563218390804</v>
       </c>
       <c r="C176" t="n">
-        <v>0.04601449393385948</v>
+        <v>0.06215647336711933</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="C177" t="n">
-        <v>0.04601340947798007</v>
+        <v>0.06177750801464876</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.2840909090909091</v>
       </c>
       <c r="C178" t="n">
-        <v>0.04599273284433252</v>
+        <v>0.06139468736963075</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.2824858757062147</v>
       </c>
       <c r="C179" t="n">
-        <v>0.04595150512754642</v>
+        <v>0.06100744043829715</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="C180" t="n">
-        <v>0.04588896445177226</v>
+        <v>0.06061526822833807</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.2793296089385475</v>
       </c>
       <c r="C181" t="n">
-        <v>0.04580453970805436</v>
+        <v>0.06021774388018467</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="C182" t="n">
-        <v>0.04569784291089618</v>
+        <v>0.0598145120890707</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.2762430939226519</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0455686604018912</v>
+        <v>0.05940528787930654</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.2747252747252747</v>
       </c>
       <c r="C184" t="n">
-        <v>0.04541777048624939</v>
+        <v>0.05898985482037924</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.273224043715847</v>
       </c>
       <c r="C185" t="n">
-        <v>0.04530006524138393</v>
+        <v>0.05856806275418487</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.2717391304347826</v>
       </c>
       <c r="C186" t="n">
-        <v>0.04534226455156314</v>
+        <v>0.05813982510612456</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.2702702702702702</v>
       </c>
       <c r="C187" t="n">
-        <v>0.04533351273900919</v>
+        <v>0.05770569230353187</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.2688172043010753</v>
       </c>
       <c r="C188" t="n">
-        <v>0.045273095204317</v>
+        <v>0.05726718862956415</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.267379679144385</v>
       </c>
       <c r="C189" t="n">
-        <v>0.04516006303037635</v>
+        <v>0.05682230390399394</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.2659574468085106</v>
       </c>
       <c r="C190" t="n">
-        <v>0.04499449729256334</v>
+        <v>0.05637116683752521</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.2645502645502645</v>
       </c>
       <c r="C191" t="n">
-        <v>0.04477726596786705</v>
+        <v>0.0559139526349075</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="C192" t="n">
-        <v>0.04451003926653181</v>
+        <v>0.05545087912386219</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.2617801047120419</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0441934680672838</v>
+        <v>0.05498220284915516</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="C194" t="n">
-        <v>0.04382946521447915</v>
+        <v>0.0545082151758241</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.2590673575129534</v>
       </c>
       <c r="C195" t="n">
-        <v>0.04342028352394474</v>
+        <v>0.05402923843526292</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.2577319587628866</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04313575038630715</v>
+        <v>0.0535456221365227</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.2564102564102564</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04289056149808702</v>
+        <v>0.05305773927868285</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.2551020408163265</v>
       </c>
       <c r="C198" t="n">
-        <v>0.04261312490233567</v>
+        <v>0.0525659827783731</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.2538071065989848</v>
       </c>
       <c r="C199" t="n">
-        <v>0.04230707050875364</v>
+        <v>0.05207076203174989</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.2525252525252525</v>
       </c>
       <c r="C200" t="n">
-        <v>0.04197067048170137</v>
+        <v>0.05157249962628936</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.2512562814070352</v>
       </c>
       <c r="C201" t="n">
-        <v>0.04160843866330344</v>
+        <v>0.05107162822032802</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.25</v>
       </c>
       <c r="C202" t="n">
-        <v>0.04122031735804191</v>
+        <v>0.05056858758324024</v>
       </c>
     </row>
   </sheetData>
